--- a/Formatos/Formato Carga de Calificaciones.xlsx
+++ b/Formatos/Formato Carga de Calificaciones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\TESI Indicadores\Website Angular\Tesi-Indicadores-FrontEnd\src\assets\formatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciak3\Desktop\Tesi Indicadores\Tesi Indicadores Fron End\Tesi-Indicadores-FrontEnd\Formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0B9327-A4A9-420E-8566-02A8C15723D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE1759D-9FF6-44F8-822B-FAFEABC2A56D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AEF579E2-DB62-47A3-A9DA-1F3D7AFCF09F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AEF579E2-DB62-47A3-A9DA-1F3D7AFCF09F}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato" sheetId="1" r:id="rId1"/>
@@ -327,6 +327,9 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -365,9 +368,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1299,99 +1299,101 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC398A3-FA53-49D3-B8B7-96A756FF93C6}">
   <sheetPr codeName="Hoja5"/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:AMG9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="A8:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="42.28515625" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="1021" width="10.5703125" customWidth="1"/>
+    <col min="5" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="1021" width="10.5703125" hidden="1"/>
+    <col min="1022" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="15"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="15"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" ht="21" customHeight="1" thickBot="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="16"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="1"/>
       <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" ht="32.25" customHeight="1" thickTop="1">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="5"/>
       <c r="D7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" ht="30.75" customHeight="1">
       <c r="A8" s="7" t="s">
@@ -1400,15 +1402,15 @@
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="18" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
@@ -1417,15 +1419,15 @@
       <c r="B9">
         <v>201224992</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9">
         <v>100</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="13">
